--- a/data/trans_dic/LAWTONB_2R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2109380972650027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2766730317967295</v>
+        <v>0.2766730317967296</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1761275147069666</v>
@@ -685,7 +685,7 @@
         <v>0.3916079963469577</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3952530502428993</v>
+        <v>0.3952530502428994</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1640388461597108</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05297759585734517</v>
+        <v>0.06901159753337364</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1273302269029193</v>
+        <v>0.1284724414965662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1021796451883165</v>
+        <v>0.103486697894178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1902230908936228</v>
+        <v>0.1937479462675429</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07255025314208657</v>
+        <v>0.06304778717225679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3270629731229223</v>
+        <v>0.3230438813023712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2458245520147844</v>
+        <v>0.2360110771899541</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3108556921154147</v>
+        <v>0.3082124765633988</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09187939396621743</v>
+        <v>0.09184702989944753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2682952582179345</v>
+        <v>0.2540334039876168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2186571717050826</v>
+        <v>0.2178486675066503</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2769459357368886</v>
+        <v>0.2799813131584665</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2906414161167494</v>
+        <v>0.2833197081029289</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3878655307273493</v>
+        <v>0.3932088461915189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3453136274693465</v>
+        <v>0.3441025318454281</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3740189521656561</v>
+        <v>0.3912659117496951</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3399927428624654</v>
+        <v>0.3342834776143989</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6181494218366294</v>
+        <v>0.6211758712681998</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5540668618497488</v>
+        <v>0.5458017855120125</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4775819318344458</v>
+        <v>0.4859125942935297</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2689661985676582</v>
+        <v>0.2701009525400335</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4698274550391184</v>
+        <v>0.4616469986936236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4161103857071739</v>
+        <v>0.4162058492505887</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4148296180768519</v>
+        <v>0.4063652193446938</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2539139879506688</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3316489925081147</v>
+        <v>0.3316489925081146</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1270985522264418</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04517186748035016</v>
+        <v>0.05455820223131146</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1100617145869253</v>
+        <v>0.1079149977837166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04428095349304523</v>
+        <v>0.04836032392877936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06441641547819894</v>
+        <v>0.06407537541118806</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07361482912718745</v>
+        <v>0.07378372173501753</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2300539536657731</v>
+        <v>0.2245806107900764</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1654950368194734</v>
+        <v>0.1711151256558538</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2685425838354549</v>
+        <v>0.2763204817715323</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07824064710244936</v>
+        <v>0.0781089747772004</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2017671679259464</v>
+        <v>0.2096054582868633</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.128568728847275</v>
+        <v>0.126631726920277</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1976367941472567</v>
+        <v>0.201536899122986</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2235818925794213</v>
+        <v>0.2167479247971355</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3218975802391549</v>
+        <v>0.3237920980942484</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1711209522565362</v>
+        <v>0.1681529769080395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1933831316898193</v>
+        <v>0.1926726415004292</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2182858662437116</v>
+        <v>0.2223655561529329</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4247094969334823</v>
+        <v>0.4294182170786547</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3497643354803974</v>
+        <v>0.3529304935999227</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3994244081505653</v>
+        <v>0.3998360913057458</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1876091417502972</v>
+        <v>0.1848761292618012</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3464553525849048</v>
+        <v>0.3493970274251541</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2489542843667197</v>
+        <v>0.2482659736163876</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2960823786604125</v>
+        <v>0.301510543398019</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1142242753563716</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3306499381115346</v>
+        <v>0.3306499381115347</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1610978527305656</v>
@@ -969,7 +969,7 @@
         <v>0.1209205018928305</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2892910267550291</v>
+        <v>0.2892910267550292</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03689615018336671</v>
+        <v>0.03649019501300492</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1296834435648993</v>
+        <v>0.131124315094147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0662125218393053</v>
+        <v>0.06416121368985234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1699984154115278</v>
+        <v>0.166551126601426</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1201278470937277</v>
+        <v>0.1192556339743154</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1469708164454503</v>
+        <v>0.1550149667775987</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04760604529403083</v>
+        <v>0.05696133151734232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.264284186895859</v>
+        <v>0.2592516767272978</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1061147450535871</v>
+        <v>0.104379438887857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1736629663625472</v>
+        <v>0.1734646487014979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07442748421459032</v>
+        <v>0.07443346503641102</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2384011835426124</v>
+        <v>0.2399799156522207</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1965734030487216</v>
+        <v>0.1986907069112478</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3679050366110334</v>
+        <v>0.375634071871251</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2132767825965153</v>
+        <v>0.2197405225007653</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3199779891025322</v>
+        <v>0.319537790834417</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2982342542571424</v>
+        <v>0.3070972273775586</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3442091601595743</v>
+        <v>0.3463952692343283</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2176944442919222</v>
+        <v>0.2193905241090394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4142138657966845</v>
+        <v>0.4018510345678434</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2372037429627222</v>
+        <v>0.2335595778965485</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3167641074269159</v>
+        <v>0.3174448346937476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1884675033637966</v>
+        <v>0.1885096550063271</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3396443687955384</v>
+        <v>0.3401307470977473</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01624430427120305</v>
+        <v>0.0158484410675627</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1500792998852551</v>
+        <v>0.1519741862841172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1069165916863703</v>
+        <v>0.1188866680045758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1138091762027491</v>
+        <v>0.1139521400354653</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1499984353244328</v>
+        <v>0.1511773230963769</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1905807597873437</v>
+        <v>0.1914166682614161</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1110993093680362</v>
+        <v>0.1064317000333488</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1763028788251607</v>
+        <v>0.1775239920453694</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1102938074565779</v>
+        <v>0.1100826973763853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2047018378874107</v>
+        <v>0.1996643136566204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1300676978219796</v>
+        <v>0.128004969777109</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1636680680987778</v>
+        <v>0.165924113202239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1414420327226771</v>
+        <v>0.1463602555528736</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3661336136964512</v>
+        <v>0.3732828025404137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.297230311925368</v>
+        <v>0.2944535622417465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2532285323163315</v>
+        <v>0.2553888453005428</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3518807083724319</v>
+        <v>0.3464566734984307</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3925694317516933</v>
+        <v>0.3833816059299383</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2881886704960062</v>
+        <v>0.3021497111692428</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2773548619705852</v>
+        <v>0.2770750974132367</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2348615890904734</v>
+        <v>0.2338393793007557</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3527410713518077</v>
+        <v>0.3483666912029499</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2668504020945525</v>
+        <v>0.2708593242699343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2468699355048704</v>
+        <v>0.2505154741420282</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3641966642263159</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2436752097265985</v>
+        <v>0.2436752097265986</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2889167667785065</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1289179784290667</v>
+        <v>0.1441403402894066</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03821683229714558</v>
+        <v>0.03777153637870494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1264401287380415</v>
+        <v>0.1244532018926325</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1641108247147755</v>
+        <v>0.1734384462563273</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1654791973780217</v>
+        <v>0.1632800827084773</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2353645903918801</v>
+        <v>0.2257490675782178</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1799237267169162</v>
+        <v>0.1764265513187383</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1872813785873914</v>
+        <v>0.1833097476130423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1734045922894809</v>
+        <v>0.1715012994913884</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1607400728326462</v>
+        <v>0.1583983855383634</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1735641855703246</v>
+        <v>0.1790538627116125</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4241941331158923</v>
+        <v>0.4343667858434763</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2144738539286526</v>
+        <v>0.2012412598333008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3129470675105835</v>
+        <v>0.3205012741112231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4507073915865089</v>
+        <v>0.4724194399134887</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4190659144227245</v>
+        <v>0.4095544203805035</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5231230813608665</v>
+        <v>0.5177309637115267</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3193757627430824</v>
+        <v>0.3174496193283359</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3950653932168806</v>
+        <v>0.4074764030563343</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3690973441429156</v>
+        <v>0.3711417565198537</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3444919258798353</v>
+        <v>0.3392547493498352</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2890945244565205</v>
+        <v>0.286995191055569</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2956555298315068</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3683682015395128</v>
+        <v>0.3683682015395127</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1722095076414563</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09646357299567138</v>
+        <v>0.07944584972887542</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.17129804534374</v>
+        <v>0.16802994563968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1327556274078098</v>
+        <v>0.1370712716937637</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.23907058441682</v>
+        <v>0.2435526101824806</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08679711089443648</v>
+        <v>0.09046348696691159</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1681554435506036</v>
+        <v>0.1692773814265234</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1796076933958375</v>
+        <v>0.1726054024238026</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2952693467063092</v>
+        <v>0.2969963716532143</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1089331463228591</v>
+        <v>0.1131734534291901</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1980997585274741</v>
+        <v>0.202169392079037</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.188891878021485</v>
+        <v>0.1896482829252241</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2950497830071329</v>
+        <v>0.2909872188792721</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2986530525948361</v>
+        <v>0.2906387036727694</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4138281994845413</v>
+        <v>0.4289908904190684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3665401392078866</v>
+        <v>0.3528868264502406</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3955672819957363</v>
+        <v>0.3918371348102564</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2769211257315721</v>
+        <v>0.2765998519676405</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3835648610675075</v>
+        <v>0.3880492366779666</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.423941392863504</v>
+        <v>0.419819619231932</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4396062336824727</v>
+        <v>0.4431595231471124</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2573954403229276</v>
+        <v>0.251081268221206</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3653521381321447</v>
+        <v>0.3638813674836378</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3624588504491923</v>
+        <v>0.3679002892098069</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3959640766632613</v>
+        <v>0.3934388086212112</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1739707104881027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09699743095370747</v>
+        <v>0.09699743095370746</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1282704134153468</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03517679895531541</v>
+        <v>0.04100701039755746</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1493143325896211</v>
+        <v>0.1517290050509703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1119522305515992</v>
+        <v>0.1111122392034482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05571169170661357</v>
+        <v>0.05687139934305711</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07759948659963156</v>
+        <v>0.07759234594868025</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1666917229057937</v>
+        <v>0.1675643997741429</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2063329080217446</v>
+        <v>0.2018368868670573</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2143013865643865</v>
+        <v>0.2130063706673158</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06643590471595788</v>
+        <v>0.07040519069926088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1760349606279147</v>
+        <v>0.1761341657385341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1818748554474497</v>
+        <v>0.1782092788190298</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1495641981038277</v>
+        <v>0.1512313864388414</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1438435558663519</v>
+        <v>0.1492777268463853</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3282290895598857</v>
+        <v>0.316574809399436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2590632591752011</v>
+        <v>0.2520092118668668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1541743603690289</v>
+        <v>0.1529942408502148</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2021484314044886</v>
+        <v>0.204081152568905</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3140381134257704</v>
+        <v>0.320394831629065</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3640213504361345</v>
+        <v>0.3594357095646034</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3314058556569917</v>
+        <v>0.3293175834406528</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1482776283068469</v>
+        <v>0.1556329142490663</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2895481265152139</v>
+        <v>0.2878602936659995</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2896030543335819</v>
+        <v>0.285960487582873</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.226436934406692</v>
+        <v>0.2261784501749314</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1256827767269662</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08225734789031591</v>
+        <v>0.08225734789031593</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2064056952231513</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.103014296059872</v>
+        <v>0.1056788390251295</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05556875127422909</v>
+        <v>0.05543668966164337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07776310418594239</v>
+        <v>0.07537426981309232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05471378924406909</v>
+        <v>0.05263883531492991</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1407455941391727</v>
+        <v>0.1428109237342712</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1148708519045606</v>
+        <v>0.1239019234036794</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1105185090736425</v>
+        <v>0.1094416630271434</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1835240842312304</v>
+        <v>0.1880222314305716</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1444245088108309</v>
+        <v>0.1427394078043152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1041724358683069</v>
+        <v>0.1091441847267801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.105255338165863</v>
+        <v>0.107584382436622</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1346209768842133</v>
+        <v>0.134214709002958</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2428958494602064</v>
+        <v>0.2445439263143548</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1913032193251979</v>
+        <v>0.1932148226154328</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1884360638745587</v>
+        <v>0.196482650995729</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1243613559208995</v>
+        <v>0.1244273443530566</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2806761953668978</v>
+        <v>0.2800959136428809</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2374536740131766</v>
+        <v>0.2494403223512558</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2364374296448113</v>
+        <v>0.2284342852529199</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2801906138247782</v>
+        <v>0.2810092507780464</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2448129037918918</v>
+        <v>0.2402767170499981</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1965083517466054</v>
+        <v>0.2031844176431806</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1932549015245185</v>
+        <v>0.1973075600665269</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1991336275896139</v>
+        <v>0.1992086676044486</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.2356850902301122</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1615335818302416</v>
@@ -1785,7 +1785,7 @@
         <v>0.1989635553064476</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1875</v>
+        <v>2442</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5638</v>
+        <v>5689</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3974</v>
+        <v>4025</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11595</v>
+        <v>11810</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2846</v>
+        <v>2473</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15991</v>
+        <v>15795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12142</v>
+        <v>11657</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20291</v>
+        <v>20119</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6856</v>
+        <v>6853</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>24998</v>
+        <v>23670</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19305</v>
+        <v>19233</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>34959</v>
+        <v>35342</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10285</v>
+        <v>10026</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17175</v>
+        <v>17412</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13431</v>
+        <v>13384</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22798</v>
+        <v>23850</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13338</v>
+        <v>13114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30224</v>
+        <v>30372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27366</v>
+        <v>26958</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31175</v>
+        <v>31718</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20069</v>
+        <v>20154</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43776</v>
+        <v>43014</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36737</v>
+        <v>36746</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>52364</v>
+        <v>51296</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3011</v>
+        <v>3637</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8717</v>
+        <v>8547</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3866</v>
+        <v>4222</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5633</v>
+        <v>5603</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7205</v>
+        <v>7222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23487</v>
+        <v>22928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19070</v>
+        <v>19717</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>36189</v>
+        <v>37237</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12873</v>
+        <v>12851</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36580</v>
+        <v>38001</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26038</v>
+        <v>25646</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43915</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14903</v>
+        <v>14447</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25495</v>
+        <v>25645</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14938</v>
+        <v>14679</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16910</v>
+        <v>16848</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21365</v>
+        <v>21764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43360</v>
+        <v>43841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40303</v>
+        <v>40667</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>53826</v>
+        <v>53882</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30867</v>
+        <v>30417</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62811</v>
+        <v>63344</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>50419</v>
+        <v>50280</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65790</v>
+        <v>66997</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1879</v>
+        <v>1859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7229</v>
+        <v>7309</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4208</v>
+        <v>4077</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12288</v>
+        <v>12039</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10033</v>
+        <v>9960</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11753</v>
+        <v>12396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3804</v>
+        <v>4551</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22538</v>
+        <v>22109</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14268</v>
+        <v>14035</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23568</v>
+        <v>23541</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10676</v>
+        <v>10677</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>37564</v>
+        <v>37813</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10013</v>
+        <v>10121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20508</v>
+        <v>20939</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13553</v>
+        <v>13964</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23130</v>
+        <v>23098</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24909</v>
+        <v>25649</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27526</v>
+        <v>27701</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17393</v>
+        <v>17529</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35325</v>
+        <v>34270</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31895</v>
+        <v>31405</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42988</v>
+        <v>43080</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27034</v>
+        <v>27040</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>53516</v>
+        <v>53593</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9609</v>
+        <v>9731</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6919</v>
+        <v>7693</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9263</v>
+        <v>9275</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11147</v>
+        <v>11234</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16309</v>
+        <v>16380</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10174</v>
+        <v>9746</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19482</v>
+        <v>19617</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14276</v>
+        <v>14249</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30624</v>
+        <v>29870</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20328</v>
+        <v>20005</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31407</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7797</v>
+        <v>8068</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23443</v>
+        <v>23901</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19234</v>
+        <v>19055</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20611</v>
+        <v>20787</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26149</v>
+        <v>25746</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33594</v>
+        <v>32807</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26391</v>
+        <v>27669</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30649</v>
+        <v>30618</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>30400</v>
+        <v>30267</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>52771</v>
+        <v>52116</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41705</v>
+        <v>42331</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>47373</v>
+        <v>48073</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3783</v>
+        <v>4230</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4615</v>
+        <v>4543</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6769</v>
+        <v>7154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8250</v>
+        <v>8140</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11893</v>
+        <v>11408</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11005</v>
+        <v>10791</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13221</v>
+        <v>12940</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14127</v>
+        <v>13972</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14886</v>
+        <v>14670</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>16951</v>
+        <v>17488</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12449</v>
+        <v>12747</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9025</v>
+        <v>8468</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11424</v>
+        <v>11699</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18590</v>
+        <v>19485</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20893</v>
+        <v>20418</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26434</v>
+        <v>26162</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>19534</v>
+        <v>19416</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>27889</v>
+        <v>28765</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30069</v>
+        <v>30236</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>31904</v>
+        <v>31419</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>28235</v>
+        <v>28030</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4553</v>
+        <v>3750</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8866</v>
+        <v>8697</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6431</v>
+        <v>6641</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14398</v>
+        <v>14668</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6103</v>
+        <v>6360</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11807</v>
+        <v>11885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12103</v>
+        <v>11632</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>19628</v>
+        <v>19743</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>12800</v>
+        <v>13299</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>24162</v>
+        <v>24658</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>21880</v>
+        <v>21968</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>37382</v>
+        <v>36867</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14095</v>
+        <v>13717</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21418</v>
+        <v>22203</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17757</v>
+        <v>17096</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23823</v>
+        <v>23598</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19470</v>
+        <v>19447</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>26931</v>
+        <v>27246</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>28569</v>
+        <v>28291</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29222</v>
+        <v>29459</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>30246</v>
+        <v>29504</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>44561</v>
+        <v>44382</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>41985</v>
+        <v>42615</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>50168</v>
+        <v>49848</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3726</v>
+        <v>4344</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16762</v>
+        <v>17034</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12559</v>
+        <v>12465</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8386</v>
+        <v>8561</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9089</v>
+        <v>9088</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>23664</v>
+        <v>23788</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>30460</v>
+        <v>29796</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>34909</v>
+        <v>34698</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14818</v>
+        <v>15704</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>44753</v>
+        <v>44778</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>47253</v>
+        <v>46301</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>46878</v>
+        <v>47400</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15237</v>
+        <v>15813</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36848</v>
+        <v>35540</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29063</v>
+        <v>28272</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23208</v>
+        <v>23030</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23676</v>
+        <v>23902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>44581</v>
+        <v>45484</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>53739</v>
+        <v>53062</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>53985</v>
+        <v>53645</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>33073</v>
+        <v>34714</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>73611</v>
+        <v>73182</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>75242</v>
+        <v>74295</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>70972</v>
+        <v>70891</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11527</v>
+        <v>11825</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6710</v>
+        <v>6694</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10433</v>
+        <v>10113</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8802</v>
+        <v>8468</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21566</v>
+        <v>21882</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>18887</v>
+        <v>20372</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>19484</v>
+        <v>19294</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>38882</v>
+        <v>39835</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>38290</v>
+        <v>37843</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>29707</v>
+        <v>31125</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>32678</v>
+        <v>33401</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>50178</v>
+        <v>50027</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>27178</v>
+        <v>27363</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>23100</v>
+        <v>23331</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25282</v>
+        <v>26362</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20006</v>
+        <v>20017</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>43007</v>
+        <v>42918</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>39041</v>
+        <v>41012</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>41683</v>
+        <v>40272</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>59362</v>
+        <v>59535</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>64904</v>
+        <v>63702</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>56038</v>
+        <v>57942</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>59999</v>
+        <v>61257</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>74224</v>
+        <v>74252</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
     </row>
     <row r="40">
